--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-ag90002218\Downloads\Aedashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B4B804C-924A-461E-8436-82F6A216B1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEF3DCE-CC6B-43F8-A38F-0B2A45B2B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A72B2DD2-881F-44C2-B37A-97E8D8A9B077}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C581F2B0-3A98-43F8-9FCF-11D56A79A6E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$2:$E$173</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,6 +129,7 @@
     <sheetNames>
       <sheetName val="Mapping"/>
       <sheetName val="Roster"/>
+      <sheetName val="Sheet3"/>
       <sheetName val="Sheet1"/>
       <sheetName val="Backend"/>
       <sheetName val="Sheet2"/>
@@ -437,7 +438,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G19">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H19">
             <v>0</v>
@@ -624,7 +625,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G30">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H30">
             <v>1</v>
@@ -1032,7 +1033,7 @@
             <v>IAM</v>
           </cell>
           <cell r="G54">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H54">
             <v>0</v>
@@ -1610,7 +1611,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G88">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H88">
             <v>0</v>
@@ -1797,7 +1798,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G99">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H99">
             <v>1</v>
@@ -1848,7 +1849,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G102">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H102">
             <v>1</v>
@@ -2052,7 +2053,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G114">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H114">
             <v>1</v>
@@ -2188,7 +2189,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G122">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H122">
             <v>0</v>
@@ -2273,7 +2274,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G127">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H127">
             <v>0</v>
@@ -2358,7 +2359,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G132">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H132">
             <v>0</v>
@@ -2375,7 +2376,7 @@
             <v xml:space="preserve">Vaccines </v>
           </cell>
           <cell r="G133">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H133">
             <v>0</v>
@@ -2715,7 +2716,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G153">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H153">
             <v>0</v>
@@ -2953,7 +2954,7 @@
             <v>Oncology</v>
           </cell>
           <cell r="G167">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H167">
             <v>0</v>
@@ -2990,7 +2991,7 @@
             <v>0</v>
           </cell>
           <cell r="H169">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="170">
@@ -3058,7 +3059,7 @@
             <v>1</v>
           </cell>
           <cell r="H173">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="174">
@@ -3491,6 +3492,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3812,12 +3814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A2ACAC-F0EF-45C3-B2B0-4BC54D8B49A5}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17240BF9-D527-4FFC-8BD6-AC8F626DA50D}">
   <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4000,7 +4001,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>[1]Roster!A9</f>
         <v>Laura Chisman</v>
@@ -4022,7 +4023,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>[1]Roster!A10</f>
         <v>John Stone</v>
@@ -4044,7 +4045,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>[1]Roster!A11</f>
         <v>Marcus Crawford</v>
@@ -4066,7 +4067,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>[1]Roster!A12</f>
         <v>Jerry Lubben</v>
@@ -4088,7 +4089,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>[1]Roster!A13</f>
         <v>Karen Kodanko</v>
@@ -4110,7 +4111,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>[1]Roster!A14</f>
         <v>Randall Roth</v>
@@ -4132,7 +4133,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>[1]Roster!A15</f>
         <v>Ann Marie Mcauliffe</v>
@@ -4154,7 +4155,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>[1]Roster!A16</f>
         <v>Callie Zampetis</v>
@@ -4176,7 +4177,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>[1]Roster!A17</f>
         <v>Darlene Halverson</v>
@@ -4198,7 +4199,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>[1]Roster!A18</f>
         <v>Annemarie Pedersen</v>
@@ -4220,7 +4221,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>[1]Roster!A19</f>
         <v>Harry Herar</v>
@@ -4235,14 +4236,14 @@
       </c>
       <c r="D19" t="str">
         <f>IF([1]Roster!G19=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E19" t="str">
         <f>IF([1]Roster!H19=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>[1]Roster!A20</f>
         <v>Kristin Smith</v>
@@ -4264,7 +4265,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>[1]Roster!A21</f>
         <v>Melanie Lamarche</v>
@@ -4286,7 +4287,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>[1]Roster!A22</f>
         <v>Mysti Horwath</v>
@@ -4308,7 +4309,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>[1]Roster!A23</f>
         <v>Bridget Sullivan</v>
@@ -4352,7 +4353,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>[1]Roster!A25</f>
         <v>John Dover</v>
@@ -4374,7 +4375,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>[1]Roster!A26</f>
         <v>Cathy Prine</v>
@@ -4477,14 +4478,14 @@
       </c>
       <c r="D30" t="str">
         <f>IF([1]Roster!G30=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E30" t="str">
         <f>IF([1]Roster!H30=1,"complete","not-started")</f>
         <v>complete</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>[1]Roster!A31</f>
         <v>Tamara Quarles</v>
@@ -4506,7 +4507,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>[1]Roster!A32</f>
         <v>Jennifer Forstner</v>
@@ -4528,7 +4529,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>[1]Roster!A33</f>
         <v>Jean Barnett</v>
@@ -4550,7 +4551,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>[1]Roster!A34</f>
         <v>Thomas Rossi</v>
@@ -4572,7 +4573,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>[1]Roster!A35</f>
         <v>Steven Wilber</v>
@@ -4594,7 +4595,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>[1]Roster!A36</f>
         <v>Jason Delk</v>
@@ -4616,7 +4617,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>[1]Roster!A37</f>
         <v>Katherine Mcgarrey</v>
@@ -4638,7 +4639,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>[1]Roster!A38</f>
         <v>Jim Manning</v>
@@ -4660,7 +4661,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>[1]Roster!A39</f>
         <v>Kimberly Kaloz</v>
@@ -4682,7 +4683,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>[1]Roster!A40</f>
         <v>Joseph Kewley</v>
@@ -4704,7 +4705,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>[1]Roster!A41</f>
         <v>Anne Zenzer</v>
@@ -4726,7 +4727,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>[1]Roster!A42</f>
         <v>Michael Neelon</v>
@@ -4748,7 +4749,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>[1]Roster!A43</f>
         <v>Richard Angeli</v>
@@ -4770,7 +4771,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>[1]Roster!A44</f>
         <v>Kari Schulsinger</v>
@@ -4792,7 +4793,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>[1]Roster!A45</f>
         <v>Scott Ebersol</v>
@@ -4968,7 +4969,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>[1]Roster!A53</f>
         <v>Robert Avis</v>
@@ -4990,7 +4991,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>[1]Roster!A54</f>
         <v>Gina Esposito</v>
@@ -5005,14 +5006,14 @@
       </c>
       <c r="D54" t="str">
         <f>IF([1]Roster!G54=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E54" t="str">
         <f>IF([1]Roster!H54=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>[1]Roster!A55</f>
         <v>Stefanie Schmitz</v>
@@ -5034,7 +5035,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>[1]Roster!A56</f>
         <v>Geffrey Bergh</v>
@@ -5056,7 +5057,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>[1]Roster!A57</f>
         <v>Joe Reed</v>
@@ -5078,7 +5079,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>[1]Roster!A58</f>
         <v>Jennifer Smith</v>
@@ -5100,7 +5101,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>[1]Roster!A59</f>
         <v>Robert Cantu</v>
@@ -5122,7 +5123,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>[1]Roster!A60</f>
         <v>Melanie Gobourne</v>
@@ -5144,7 +5145,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>[1]Roster!A61</f>
         <v>Andrew Metzinger</v>
@@ -5166,7 +5167,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>[1]Roster!A62</f>
         <v>Brianj Frisone</v>
@@ -5188,7 +5189,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>[1]Roster!A63</f>
         <v>David Rose</v>
@@ -5210,7 +5211,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>[1]Roster!A64</f>
         <v>John Comonitski</v>
@@ -5232,7 +5233,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>[1]Roster!A65</f>
         <v>Alicia Margoles</v>
@@ -5254,7 +5255,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>[1]Roster!A66</f>
         <v>John Durand</v>
@@ -5276,7 +5277,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>[1]Roster!A67</f>
         <v>Taylor Martin</v>
@@ -5298,7 +5299,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>[1]Roster!A68</f>
         <v>Paul Carpenter</v>
@@ -5320,7 +5321,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>[1]Roster!A69</f>
         <v>G Wigginton</v>
@@ -5342,7 +5343,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>[1]Roster!A70</f>
         <v>Todd Herman</v>
@@ -5364,7 +5365,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>[1]Roster!A71</f>
         <v>Heather Page</v>
@@ -5386,7 +5387,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>[1]Roster!A72</f>
         <v>Kristin Edwards</v>
@@ -5408,7 +5409,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>[1]Roster!A73</f>
         <v>Stan Merriken</v>
@@ -5430,7 +5431,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>[1]Roster!A74</f>
         <v>Nannette Alton-Labus</v>
@@ -5452,7 +5453,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>[1]Roster!A75</f>
         <v>Grove Bolger</v>
@@ -5474,7 +5475,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>[1]Roster!A76</f>
         <v>Edward Sot</v>
@@ -5518,7 +5519,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>[1]Roster!A78</f>
         <v>Corinne Piazza</v>
@@ -5540,7 +5541,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>[1]Roster!A79</f>
         <v>Glenn Belemjian</v>
@@ -5562,7 +5563,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>[1]Roster!A80</f>
         <v>Anoop Mansukhani</v>
@@ -5584,7 +5585,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>[1]Roster!A81</f>
         <v>Jonathan Ijaz</v>
@@ -5606,7 +5607,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>[1]Roster!A82</f>
         <v>Kathryn Mckeon</v>
@@ -5628,7 +5629,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>[1]Roster!A83</f>
         <v>Keith Ingstad</v>
@@ -5650,7 +5651,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>[1]Roster!A84</f>
         <v>Joette Munoz</v>
@@ -5672,7 +5673,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>[1]Roster!A85</f>
         <v>Fran Roberts</v>
@@ -5694,7 +5695,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>[1]Roster!A86</f>
         <v>Douglas Gelatti</v>
@@ -5716,7 +5717,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>[1]Roster!A87</f>
         <v>Carrie Britton</v>
@@ -5738,7 +5739,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>[1]Roster!A88</f>
         <v>Louis Carbajal</v>
@@ -5753,14 +5754,14 @@
       </c>
       <c r="D88" t="str">
         <f>IF([1]Roster!G88=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E88" t="str">
         <f>IF([1]Roster!H88=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>[1]Roster!A89</f>
         <v>Tara Barton</v>
@@ -5782,7 +5783,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>[1]Roster!A90</f>
         <v>Jay Shen</v>
@@ -5995,7 +5996,7 @@
       </c>
       <c r="D99" t="str">
         <f>IF([1]Roster!G99=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E99" t="str">
         <f>IF([1]Roster!H99=1,"complete","not-started")</f>
@@ -6061,7 +6062,7 @@
       </c>
       <c r="D102" t="str">
         <f>IF([1]Roster!G102=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E102" t="str">
         <f>IF([1]Roster!H102=1,"complete","not-started")</f>
@@ -6178,7 +6179,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="str">
         <f>[1]Roster!A108</f>
         <v>Laura Ruiz-Martinez</v>
@@ -6200,7 +6201,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="str">
         <f>[1]Roster!A109</f>
         <v>Leslie Brunette</v>
@@ -6222,7 +6223,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="str">
         <f>[1]Roster!A110</f>
         <v>Chris Golden</v>
@@ -6244,7 +6245,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="str">
         <f>[1]Roster!A111</f>
         <v>Michelle Moylanelder</v>
@@ -6266,7 +6267,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="str">
         <f>[1]Roster!A112</f>
         <v>Lynn Mckinley</v>
@@ -6288,7 +6289,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="str">
         <f>[1]Roster!A113</f>
         <v>Sarah Sawyer</v>
@@ -6325,7 +6326,7 @@
       </c>
       <c r="D114" t="str">
         <f>IF([1]Roster!G114=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E114" t="str">
         <f>IF([1]Roster!H114=1,"complete","not-started")</f>
@@ -6420,7 +6421,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="str">
         <f>[1]Roster!A119</f>
         <v>Theodore Scheff</v>
@@ -6442,7 +6443,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="str">
         <f>[1]Roster!A120</f>
         <v>Michelle Reeder</v>
@@ -6464,7 +6465,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="str">
         <f>[1]Roster!A121</f>
         <v>Annie Laporta</v>
@@ -6486,7 +6487,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="str">
         <f>[1]Roster!A122</f>
         <v>Leslie Nodler</v>
@@ -6501,14 +6502,14 @@
       </c>
       <c r="D122" t="str">
         <f>IF([1]Roster!G122=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E122" t="str">
         <f>IF([1]Roster!H122=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="str">
         <f>[1]Roster!A123</f>
         <v>James Kemp</v>
@@ -6530,7 +6531,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="str">
         <f>[1]Roster!A124</f>
         <v>James Devins</v>
@@ -6552,7 +6553,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="str">
         <f>[1]Roster!A125</f>
         <v>Lisa Hohman</v>
@@ -6574,7 +6575,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="str">
         <f>[1]Roster!A126</f>
         <v>Jennifer Bentley</v>
@@ -6596,7 +6597,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="str">
         <f>[1]Roster!A127</f>
         <v>Peter Hayek</v>
@@ -6611,14 +6612,14 @@
       </c>
       <c r="D127" t="str">
         <f>IF([1]Roster!G127=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E127" t="str">
         <f>IF([1]Roster!H127=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="str">
         <f>[1]Roster!A128</f>
         <v>Jane Dantinne</v>
@@ -6640,7 +6641,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="str">
         <f>[1]Roster!A129</f>
         <v>Kerry Yamat</v>
@@ -6662,7 +6663,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="str">
         <f>[1]Roster!A130</f>
         <v>Kyle Spencer</v>
@@ -6684,7 +6685,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="str">
         <f>[1]Roster!A131</f>
         <v>Shilpa Kalawadia</v>
@@ -6706,7 +6707,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="str">
         <f>[1]Roster!A132</f>
         <v>Steven Gardner</v>
@@ -6721,14 +6722,14 @@
       </c>
       <c r="D132" t="str">
         <f>IF([1]Roster!G132=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E132" t="str">
         <f>IF([1]Roster!H132=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="str">
         <f>[1]Roster!A133</f>
         <v>Dawn Conrad</v>
@@ -6743,14 +6744,14 @@
       </c>
       <c r="D133" t="str">
         <f>IF([1]Roster!G133=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E133" t="str">
         <f>IF([1]Roster!H133=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="str">
         <f>[1]Roster!A134</f>
         <v>Paula Novabilski</v>
@@ -6772,7 +6773,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="str">
         <f>[1]Roster!A135</f>
         <v>Lynnette Nestor</v>
@@ -6794,7 +6795,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="str">
         <f>[1]Roster!A136</f>
         <v>Melissa Rieflin</v>
@@ -6816,7 +6817,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="str">
         <f>[1]Roster!A137</f>
         <v>Bill Germond</v>
@@ -6838,7 +6839,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="str">
         <f>[1]Roster!A138</f>
         <v>Andrea Hobbs</v>
@@ -6860,7 +6861,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="str">
         <f>[1]Roster!A139</f>
         <v>Tobey Hoambrecker</v>
@@ -6882,7 +6883,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="str">
         <f>[1]Roster!A140</f>
         <v>Kimberly Kunkleman</v>
@@ -6904,7 +6905,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="str">
         <f>[1]Roster!A141</f>
         <v>Jennifer Neumer</v>
@@ -6926,7 +6927,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="str">
         <f>[1]Roster!A142</f>
         <v>Joseph Yurt</v>
@@ -6948,7 +6949,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="str">
         <f>[1]Roster!A143</f>
         <v>Christopher Gosselin</v>
@@ -6970,7 +6971,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="str">
         <f>[1]Roster!A144</f>
         <v>Jason Monk</v>
@@ -6992,7 +6993,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="str">
         <f>[1]Roster!A145</f>
         <v>Dawn Hansen</v>
@@ -7014,7 +7015,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="str">
         <f>[1]Roster!A146</f>
         <v>Karyn Tomlin</v>
@@ -7036,7 +7037,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="str">
         <f>[1]Roster!A147</f>
         <v>Troy Siragusa</v>
@@ -7058,7 +7059,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="str">
         <f>[1]Roster!A148</f>
         <v>Sylvia Jacobs</v>
@@ -7080,7 +7081,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="str">
         <f>[1]Roster!A149</f>
         <v>Brandon Black</v>
@@ -7102,7 +7103,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="str">
         <f>[1]Roster!A150</f>
         <v>Michelleb Mitchell</v>
@@ -7124,7 +7125,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="str">
         <f>[1]Roster!A151</f>
         <v>Deborah Bergman</v>
@@ -7146,7 +7147,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="str">
         <f>[1]Roster!A152</f>
         <v>Robby Robinson</v>
@@ -7168,7 +7169,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="str">
         <f>[1]Roster!A153</f>
         <v>Nikole Austrup-Jones</v>
@@ -7183,14 +7184,14 @@
       </c>
       <c r="D153" t="str">
         <f>IF([1]Roster!G153=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E153" t="str">
         <f>IF([1]Roster!H153=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="str">
         <f>[1]Roster!A154</f>
         <v>Jasmina Boruta</v>
@@ -7212,7 +7213,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="str">
         <f>[1]Roster!A155</f>
         <v>Larry Balone</v>
@@ -7234,7 +7235,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="str">
         <f>[1]Roster!A156</f>
         <v>John Foster</v>
@@ -7256,7 +7257,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="str">
         <f>[1]Roster!A157</f>
         <v>Alexis Amici</v>
@@ -7278,7 +7279,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="str">
         <f>[1]Roster!A158</f>
         <v>Michele Torelli</v>
@@ -7300,7 +7301,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="str">
         <f>[1]Roster!A159</f>
         <v>Steve Fowler</v>
@@ -7322,7 +7323,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="str">
         <f>[1]Roster!A160</f>
         <v>Tiffany Grand</v>
@@ -7344,7 +7345,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="str">
         <f>[1]Roster!A161</f>
         <v>Thomas Berte</v>
@@ -7366,7 +7367,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="str">
         <f>[1]Roster!A162</f>
         <v>Tara Fleming</v>
@@ -7388,7 +7389,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="str">
         <f>[1]Roster!A163</f>
         <v>Ann Wagner</v>
@@ -7410,7 +7411,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="str">
         <f>[1]Roster!A164</f>
         <v>David Williams</v>
@@ -7432,7 +7433,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="str">
         <f>[1]Roster!A165</f>
         <v>Douglas Slape</v>
@@ -7454,7 +7455,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="str">
         <f>[1]Roster!A166</f>
         <v>Shandra Harvey Stewart</v>
@@ -7476,7 +7477,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="str">
         <f>[1]Roster!A167</f>
         <v>Hayley Ludwig</v>
@@ -7491,14 +7492,14 @@
       </c>
       <c r="D167" t="str">
         <f>IF([1]Roster!G167=1,"complete","not-started")</f>
-        <v>not-started</v>
+        <v>complete</v>
       </c>
       <c r="E167" t="str">
         <f>IF([1]Roster!H167=1,"complete","not-started")</f>
         <v>not-started</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="str">
         <f>[1]Roster!A168</f>
         <v>Maureen Hall</v>
@@ -7520,7 +7521,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="str">
         <f>[1]Roster!A169</f>
         <v>Randy Benson</v>
@@ -7539,10 +7540,10 @@
       </c>
       <c r="E169" t="str">
         <f>IF([1]Roster!H169=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="str">
         <f>[1]Roster!A170</f>
         <v>Mark Campbell</v>
@@ -7564,7 +7565,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="str">
         <f>[1]Roster!A171</f>
         <v>Bree Carlin</v>
@@ -7586,7 +7587,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="str">
         <f>[1]Roster!A172</f>
         <v>Cecelia Daly</v>
@@ -7608,7 +7609,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="str">
         <f>[1]Roster!A173</f>
         <v>Christopher Billmann</v>
@@ -7627,10 +7628,10 @@
       </c>
       <c r="E173" t="str">
         <f>IF([1]Roster!H173=1,"complete","not-started")</f>
-        <v>not-started</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="str">
         <f>[1]Roster!A174</f>
         <v>Kent Hutchens</v>
@@ -7652,7 +7653,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="str">
         <f>[1]Roster!A175</f>
         <v>Amy Finn</v>
@@ -7674,7 +7675,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="str">
         <f>[1]Roster!A176</f>
         <v>Jodi Pergolis</v>
@@ -7696,7 +7697,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="str">
         <f>[1]Roster!A177</f>
         <v>Mark Barrett</v>
@@ -7718,7 +7719,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="str">
         <f>[1]Roster!A178</f>
         <v>John Towle</v>
@@ -7740,7 +7741,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="str">
         <f>[1]Roster!A179</f>
         <v>Andrew Oneil</v>
@@ -7762,7 +7763,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="str">
         <f>[1]Roster!A180</f>
         <v>Jeff Kounter</v>
@@ -7784,7 +7785,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="str">
         <f>[1]Roster!A181</f>
         <v>Kristin Ngchee</v>
@@ -7806,7 +7807,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="str">
         <f>[1]Roster!A182</f>
         <v>Carl Meister</v>
@@ -7828,7 +7829,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="str">
         <f>[1]Roster!A183</f>
         <v>Adam Martin</v>
@@ -7850,7 +7851,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="str">
         <f>[1]Roster!A184</f>
         <v>John Costello</v>
@@ -7872,7 +7873,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="str">
         <f>[1]Roster!A185</f>
         <v>Joseph Giuliano</v>
@@ -7894,7 +7895,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="str">
         <f>[1]Roster!A186</f>
         <v>Marilyn Gonzalez</v>
@@ -7916,7 +7917,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="str">
         <f>[1]Roster!A187</f>
         <v>Johnsie Ortiz</v>
@@ -7938,7 +7939,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="str">
         <f>[1]Roster!A188</f>
         <v>Lillian Colon</v>
@@ -7960,7 +7961,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="str">
         <f>[1]Roster!A189</f>
         <v>Ricardo Rojas</v>
@@ -7982,7 +7983,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="str">
         <f>[1]Roster!A190</f>
         <v>Juan Pablo Rosado</v>
@@ -8004,7 +8005,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="str">
         <f>[1]Roster!A191</f>
         <v>Alma Guadalupe</v>
@@ -8026,7 +8027,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="str">
         <f>[1]Roster!A192</f>
         <v>Mark Montello</v>
@@ -8048,7 +8049,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="str">
         <f>[1]Roster!A193</f>
         <v>Claire McSorley</v>
@@ -8070,7 +8071,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="str">
         <f>[1]Roster!A194</f>
         <v>Michael Nicolucci</v>
@@ -8092,7 +8093,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="str">
         <f>[1]Roster!A195</f>
         <v>Craig R Haubach</v>
@@ -8114,7 +8115,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="str">
         <f>[1]Roster!A196</f>
         <v>Kimberley Olmstedkreag</v>
@@ -8136,7 +8137,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="str">
         <f>[1]Roster!A197</f>
         <v>Robert Wiley</v>
@@ -8158,7 +8159,7 @@
         <v>not-started</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="str">
         <f>[1]Roster!A198</f>
         <v>John Bousum</v>
@@ -8181,13 +8182,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E198" xr:uid="{4396AF0D-29EB-4808-A8A6-4ED66D1EEC6C}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="complete"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
